--- a/kenttien_nimeaminen.xlsx
+++ b/kenttien_nimeaminen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>tilausnro</t>
   </si>
@@ -68,9 +68,6 @@
     <t>a-hinta(sis alv)</t>
   </si>
   <si>
-    <t>Irina tekee lista</t>
-  </si>
-  <si>
     <t>Tilausrivit</t>
   </si>
   <si>
@@ -84,6 +81,36 @@
   </si>
   <si>
     <t>Ruokalista</t>
+  </si>
+  <si>
+    <t>Katkarapu ceasar-salaatti</t>
+  </si>
+  <si>
+    <t>Maalaissalaatti kananmunalla ja pekoniruseteilla</t>
+  </si>
+  <si>
+    <t>Tulinen nyhtokaurahampurilainen</t>
+  </si>
+  <si>
+    <t>Kermainen kolmen pähkinän pasta</t>
+  </si>
+  <si>
+    <t>Miilunpolttajan pasta</t>
+  </si>
+  <si>
+    <t>Grillattuja pikkuahvenia, perunalumi</t>
+  </si>
+  <si>
+    <t>Haukimureke, fenkolipeti</t>
+  </si>
+  <si>
+    <t>Mustajuuri-chevrepihvit,</t>
+  </si>
+  <si>
+    <t>Peuran sisäfile, metsäsienirisotto</t>
+  </si>
+  <si>
+    <t>Rosvopaisti lampaan potkasta, haudutetut juurekset</t>
   </si>
 </sst>
 </file>
@@ -412,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +560,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,14 +571,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/kenttien_nimeaminen.xlsx
+++ b/kenttien_nimeaminen.xlsx
@@ -104,13 +104,13 @@
     <t>Haukimureke, fenkolipeti</t>
   </si>
   <si>
-    <t>Mustajuuri-chevrepihvit,</t>
-  </si>
-  <si>
     <t>Peuran sisäfile, metsäsienirisotto</t>
   </si>
   <si>
     <t>Rosvopaisti lampaan potkasta, haudutetut juurekset</t>
+  </si>
+  <si>
+    <t>Mustajuuri-chevrepihvit, hiiliperunat</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,17 +608,17 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
